--- a/report/Results.xlsx
+++ b/report/Results.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacharias.detorakis\Desktop\nov-city-ms-project\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{C4026452-8E4F-43E1-BE87-B9DA985CBF78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A59AF2F-D6CE-4181-9804-F8DE53FDC081}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="231">
   <si>
     <t>24.77 (34.86)</t>
   </si>
@@ -683,12 +683,57 @@
   </si>
   <si>
     <t>75.09 (75.65)</t>
+  </si>
+  <si>
+    <t>28.44 (37.73)</t>
+  </si>
+  <si>
+    <t>49.63 (56.6)</t>
+  </si>
+  <si>
+    <t>63.01 (69.33)</t>
+  </si>
+  <si>
+    <t>75.84 (77.6)</t>
+  </si>
+  <si>
+    <t>80.67 (81.78)</t>
+  </si>
+  <si>
+    <t>cnn</t>
+  </si>
+  <si>
+    <t>88.07 (91.28)</t>
+  </si>
+  <si>
+    <t>66.06 (72.94)</t>
+  </si>
+  <si>
+    <t>86.24 (89.91)</t>
+  </si>
+  <si>
+    <t>83.49 (87.61)</t>
+  </si>
+  <si>
+    <t>76.15 (81.65)</t>
+  </si>
+  <si>
+    <t>80.73 (85.32)</t>
+  </si>
+  <si>
+    <t>84.4 (88.99)</t>
+  </si>
+  <si>
+    <t>88.99 (92.2)</t>
+  </si>
+  <si>
+    <t>89.91 (92.66)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -1968,53 +2013,53 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2019'!$N$4:$N$18</c:f>
+              <c:f>'2019'!$J$4:$J$18</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>16.510000000000002</c:v>
+                  <c:v>24.77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.86</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>57.8</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>70.64</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>77.98</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>74.31</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
                   <c:v>83.49</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>83.49</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>86.24</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>88.07</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
                   <c:v>88.99</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>89.91</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
                   <c:v>90.83</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>91.74</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>90.83</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
                   <c:v>92.66</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="10" formatCode="0.00">
                   <c:v>92.66</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="11" formatCode="0.00">
                   <c:v>92.66</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>92.66</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>92.66</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
                   <c:v>92.66</c:v>
                 </c:pt>
               </c:numCache>
@@ -2121,39 +2166,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2019'!$N$23:$N$37</c:f>
+              <c:f>'2019'!$J$23:$J$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>19.27</c:v>
+                  <c:v>24.77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.95</c:v>
+                  <c:v>57.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.47</c:v>
+                  <c:v>74.31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.06</c:v>
+                  <c:v>83.49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83.49</c:v>
+                  <c:v>88.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83.49</c:v>
+                  <c:v>88.99</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>88.07</c:v>
+                  <c:v>89.91</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>88.99</c:v>
+                  <c:v>90.83</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89.91</c:v>
+                  <c:v>90.83</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90.83</c:v>
+                  <c:v>92.66</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>92.66</c:v>
@@ -2162,13 +2207,13 @@
                   <c:v>92.66</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>93.58</c:v>
+                  <c:v>92.66</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>93.58</c:v>
+                  <c:v>92.66</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>93.58</c:v>
+                  <c:v>92.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2330,6 +2375,99 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-F9D3-4B7E-A681-FDA63C14A511}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2019'!$N$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cnn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2019'!$I$57:$I$61</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2019'!$J$57:$J$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>66.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.07</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F81E-4C28-AC62-D07B3DFEC6DF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2537,7 +2675,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2592,10 +2730,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73411439445304449"/>
-          <c:y val="0.56511879602655868"/>
-          <c:w val="0.17860244307369727"/>
-          <c:h val="0.22396221768374308"/>
+          <c:x val="0.74812551950698492"/>
+          <c:y val="0.4899122567152055"/>
+          <c:w val="0.16659290731317686"/>
+          <c:h val="0.29861629024499081"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3730,6 +3868,529 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'2019'!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rank (&lt;=1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2019'!$I$57:$I$66</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2019'!$J$57:$J$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>66.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.07</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1BF2-4CD1-BBFE-636194839182}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2019'!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rank (&lt;=2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2019'!$I$57:$I$66</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2019'!$K$57:$K$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>66.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93.58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1BF2-4CD1-BBFE-636194839182}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="512924024"/>
+        <c:axId val="512924352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="512924024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of top x candidate classes considered</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512924352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="512924352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Precision (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512924024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.77187276952136952"/>
+          <c:y val="0.39750473045969675"/>
+          <c:w val="0.1381007612789461"/>
+          <c:h val="0.37368364889492417"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Precision for Various ranks</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10549936493139006"/>
+          <c:y val="0.15983583404298948"/>
+          <c:w val="0.82190921330728262"/>
+          <c:h val="0.63908144341616957"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'2021'!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -4689,7 +5350,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4868,33 +5529,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2021'!$M$4:$M$18</c:f>
+              <c:f>'2021'!$J$4:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>20.63</c:v>
+                  <c:v>24.54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.9</c:v>
+                  <c:v>45.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.7</c:v>
+                  <c:v>63.57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63.57</c:v>
+                  <c:v>79.930000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71</c:v>
+                  <c:v>81.41</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.86</c:v>
+                  <c:v>82.16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81.040000000000006</c:v>
+                  <c:v>82.16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>82.71</c:v>
+                  <c:v>82.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>82.9</c:v>
@@ -4903,19 +5564,19 @@
                   <c:v>82.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>82.9</c:v>
+                  <c:v>83.27</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>82.9</c:v>
+                  <c:v>83.27</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>83.27</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>83.64</c:v>
+                  <c:v>83.27</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>83.83</c:v>
+                  <c:v>83.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5021,54 +5682,54 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2021'!$M$23:$M$37</c:f>
+              <c:f>'2021'!$J$23:$J$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>23.05</c:v>
+                  <c:v>24.54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.01</c:v>
+                  <c:v>45.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.93</c:v>
+                  <c:v>63.57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79</c:v>
+                  <c:v>79.930000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80.67</c:v>
+                  <c:v>81.41</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82.34</c:v>
+                  <c:v>82.16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>82.34</c:v>
+                  <c:v>82.16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>82.53</c:v>
+                  <c:v>82.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>82.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>83.64</c:v>
+                  <c:v>82.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>83.64</c:v>
+                  <c:v>83.27</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>83.64</c:v>
+                  <c:v>83.27</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>83.83</c:v>
+                  <c:v>83.27</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>83.83</c:v>
+                  <c:v>83.27</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>83.83</c:v>
+                  <c:v>83.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5174,54 +5835,54 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2021'!$M$41:$M$55</c:f>
+              <c:f>'2021'!$J$41:$J$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>25.46</c:v>
+                  <c:v>38.659999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.54</c:v>
+                  <c:v>57.43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.83</c:v>
+                  <c:v>71.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61.9</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.430000000000007</c:v>
+                  <c:v>80.67</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>68.959999999999994</c:v>
+                  <c:v>81.97</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71</c:v>
+                  <c:v>82.34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74.16</c:v>
+                  <c:v>82.34</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>74.540000000000006</c:v>
+                  <c:v>82.53</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74.540000000000006</c:v>
+                  <c:v>82.71</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75.09</c:v>
+                  <c:v>83.27</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75.84</c:v>
+                  <c:v>83.27</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75.84</c:v>
+                  <c:v>83.27</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>75.84</c:v>
+                  <c:v>83.27</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75.84</c:v>
+                  <c:v>83.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5230,6 +5891,99 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9370-43F2-8076-49BCEFAE6C0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2021'!$J$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cnn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2021'!$I$58:$I$62</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2021'!$J$58:$J$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>28.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FD06-4606-8AC3-ACA4774F9C60}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5493,10 +6247,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73411439445304449"/>
-          <c:y val="0.56511879602655868"/>
-          <c:w val="0.17860244307369727"/>
-          <c:h val="0.22396221768374308"/>
+          <c:x val="0.75200233748193601"/>
+          <c:y val="0.48179628622484655"/>
+          <c:w val="0.16542426643037275"/>
+          <c:h val="0.29601636754460936"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5576,7 +6330,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7787,6 +8541,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>293782</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>2056</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73EE2FA2-5A01-4800-83C1-5F2C832E42B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8205,11 +8997,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:N103"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41:G55"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD54" sqref="AD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10030,77 +10822,210 @@
     </row>
     <row r="56" spans="2:14">
       <c r="B56" s="1"/>
+      <c r="N56" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="57" spans="2:14">
-      <c r="B57" s="1"/>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>223</v>
+      </c>
+      <c r="D57" t="s">
+        <v>223</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>66.06</v>
+      </c>
+      <c r="K57">
+        <v>66.06</v>
+      </c>
     </row>
     <row r="58" spans="2:14">
-      <c r="B58" s="1"/>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>226</v>
+      </c>
+      <c r="I58" s="2">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>77.98</v>
+      </c>
+      <c r="K58">
+        <v>76.150000000000006</v>
+      </c>
     </row>
     <row r="59" spans="2:14">
-      <c r="B59" s="1"/>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>225</v>
+      </c>
+      <c r="D59" t="s">
+        <v>227</v>
+      </c>
+      <c r="I59" s="2">
+        <v>3</v>
+      </c>
+      <c r="J59">
+        <v>83.49</v>
+      </c>
+      <c r="K59">
+        <v>80.73</v>
+      </c>
     </row>
     <row r="60" spans="2:14">
-      <c r="B60" s="1"/>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>224</v>
+      </c>
+      <c r="D60" t="s">
+        <v>228</v>
+      </c>
+      <c r="I60" s="2">
+        <v>4</v>
+      </c>
+      <c r="J60">
+        <v>86.24</v>
+      </c>
+      <c r="K60">
+        <v>84.4</v>
+      </c>
     </row>
     <row r="61" spans="2:14">
-      <c r="B61" s="1"/>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>222</v>
+      </c>
+      <c r="D61" t="s">
+        <v>229</v>
+      </c>
+      <c r="I61" s="2">
+        <v>5</v>
+      </c>
+      <c r="J61">
+        <v>88.07</v>
+      </c>
+      <c r="K61">
+        <v>88.99</v>
+      </c>
     </row>
     <row r="62" spans="2:14">
       <c r="B62" s="1"/>
+      <c r="D62" t="s">
+        <v>230</v>
+      </c>
+      <c r="I62" s="2">
+        <v>6</v>
+      </c>
+      <c r="K62">
+        <v>89.91</v>
+      </c>
     </row>
     <row r="63" spans="2:14">
       <c r="B63" s="1"/>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63" s="2">
+        <v>7</v>
+      </c>
+      <c r="K63">
+        <v>93.58</v>
+      </c>
     </row>
     <row r="64" spans="2:14">
       <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="2:2">
+      <c r="D64" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64" s="2">
+        <v>8</v>
+      </c>
+      <c r="K64">
+        <v>93.58</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11">
       <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="2:2">
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" s="2">
+        <v>9</v>
+      </c>
+      <c r="K65">
+        <v>93.58</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11">
       <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="2:2">
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" s="2">
+        <v>10</v>
+      </c>
+      <c r="K66">
+        <v>93.58</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11">
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:11">
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:11">
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:11">
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:11">
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:11">
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:11">
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:11">
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:11">
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:11">
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:11">
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:11">
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:11">
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:11">
       <c r="B80" s="1"/>
     </row>
     <row r="81" spans="2:2">
@@ -10171,39 +11096,6 @@
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2">
-      <c r="B108" s="1"/>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109" s="1"/>
-    </row>
-    <row r="110" spans="2:2">
-      <c r="B110" s="1"/>
-    </row>
-    <row r="111" spans="2:2">
-      <c r="B111" s="1"/>
-    </row>
-    <row r="112" spans="2:2">
-      <c r="B112" s="1"/>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="1"/>
-    </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10214,11 +11106,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:N120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S63" sqref="S63"/>
+    <sheetView topLeftCell="B28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10226,7 +11118,8 @@
     <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="15.36328125" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:14">
@@ -12026,268 +12919,190 @@
       <c r="B56" s="1"/>
     </row>
     <row r="57" spans="2:14">
-      <c r="B57" s="1"/>
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>216</v>
+      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="58" spans="2:14">
-      <c r="B58" s="1"/>
+      <c r="B58" s="2">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>217</v>
+      </c>
       <c r="F58" s="1"/>
+      <c r="I58" s="2">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>28.44</v>
+      </c>
     </row>
     <row r="59" spans="2:14">
-      <c r="B59" s="1"/>
+      <c r="B59" s="2">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>218</v>
+      </c>
       <c r="F59" s="1"/>
+      <c r="I59" s="2">
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <v>49.63</v>
+      </c>
     </row>
     <row r="60" spans="2:14">
-      <c r="B60" s="1"/>
+      <c r="B60" s="2">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>219</v>
+      </c>
       <c r="F60" s="1"/>
+      <c r="I60" s="2">
+        <v>3</v>
+      </c>
+      <c r="J60">
+        <v>63.01</v>
+      </c>
     </row>
     <row r="61" spans="2:14">
-      <c r="B61" s="1"/>
+      <c r="B61" s="2">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>220</v>
+      </c>
       <c r="F61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="I61" s="2">
+        <v>4</v>
+      </c>
+      <c r="J61">
+        <v>75.84</v>
+      </c>
     </row>
     <row r="62" spans="2:14">
       <c r="B62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="I62" s="2">
+        <v>5</v>
+      </c>
+      <c r="J62">
+        <v>80.67</v>
+      </c>
     </row>
     <row r="63" spans="2:14">
       <c r="B63" s="1"/>
-      <c r="D63" s="1">
-        <v>1</v>
-      </c>
-      <c r="E63" s="1">
-        <v>1</v>
-      </c>
-      <c r="F63" s="1">
-        <v>1</v>
-      </c>
-      <c r="G63" t="s">
-        <v>204</v>
-      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
       <c r="J63" s="1"/>
     </row>
     <row r="64" spans="2:14">
       <c r="B64" s="1"/>
-      <c r="D64" s="1">
-        <v>2</v>
-      </c>
-      <c r="E64" s="1">
-        <v>2</v>
-      </c>
-      <c r="F64" s="1">
-        <v>2</v>
-      </c>
-      <c r="G64" t="s">
-        <v>205</v>
-      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
       <c r="J64" s="1"/>
     </row>
     <row r="65" spans="2:10">
       <c r="B65" s="1"/>
-      <c r="D65" s="1">
-        <v>3</v>
-      </c>
-      <c r="E65" s="1">
-        <v>3</v>
-      </c>
-      <c r="F65" s="1">
-        <v>3</v>
-      </c>
-      <c r="G65" t="s">
-        <v>206</v>
-      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
       <c r="J65" s="1"/>
     </row>
     <row r="66" spans="2:10">
       <c r="B66" s="1"/>
-      <c r="D66" s="1">
-        <v>4</v>
-      </c>
-      <c r="E66" s="1">
-        <v>4</v>
-      </c>
-      <c r="F66" s="1">
-        <v>4</v>
-      </c>
-      <c r="G66" t="s">
-        <v>207</v>
-      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
       <c r="J66" s="1"/>
     </row>
     <row r="67" spans="2:10">
       <c r="B67" s="1"/>
-      <c r="D67" s="1">
-        <v>5</v>
-      </c>
-      <c r="E67" s="1">
-        <v>5</v>
-      </c>
-      <c r="F67" s="1">
-        <v>5</v>
-      </c>
-      <c r="G67" t="s">
-        <v>208</v>
-      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
       <c r="J67" s="1"/>
     </row>
     <row r="68" spans="2:10">
       <c r="B68" s="1"/>
-      <c r="D68" s="1">
-        <v>6</v>
-      </c>
-      <c r="E68" s="1">
-        <v>6</v>
-      </c>
-      <c r="F68" s="1">
-        <v>6</v>
-      </c>
-      <c r="G68" t="s">
-        <v>209</v>
-      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
       <c r="J68" s="1"/>
     </row>
     <row r="69" spans="2:10">
       <c r="B69" s="1"/>
-      <c r="D69" s="1">
-        <v>7</v>
-      </c>
-      <c r="E69" s="1">
-        <v>7</v>
-      </c>
-      <c r="F69" s="1">
-        <v>7</v>
-      </c>
-      <c r="G69" t="s">
-        <v>210</v>
-      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
       <c r="J69" s="1"/>
     </row>
     <row r="70" spans="2:10">
       <c r="B70" s="1"/>
-      <c r="D70" s="1">
-        <v>8</v>
-      </c>
-      <c r="E70" s="1">
-        <v>8</v>
-      </c>
-      <c r="F70" s="1">
-        <v>8</v>
-      </c>
-      <c r="G70" t="s">
-        <v>211</v>
-      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
       <c r="J70" s="1"/>
     </row>
     <row r="71" spans="2:10">
       <c r="B71" s="1"/>
-      <c r="D71" s="1">
-        <v>9</v>
-      </c>
-      <c r="E71" s="1">
-        <v>9</v>
-      </c>
-      <c r="F71" s="1">
-        <v>9</v>
-      </c>
-      <c r="G71" t="s">
-        <v>212</v>
-      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
       <c r="J71" s="1"/>
     </row>
     <row r="72" spans="2:10">
       <c r="B72" s="1"/>
-      <c r="D72" s="1">
-        <v>10</v>
-      </c>
-      <c r="E72" s="1">
-        <v>10</v>
-      </c>
-      <c r="F72" s="1">
-        <v>10</v>
-      </c>
-      <c r="G72" t="s">
-        <v>213</v>
-      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
       <c r="J72" s="1"/>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" s="1"/>
-      <c r="D73" s="1">
-        <v>11</v>
-      </c>
-      <c r="E73" s="1">
-        <v>11</v>
-      </c>
-      <c r="F73" s="1">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s">
-        <v>214</v>
-      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
       <c r="J73" s="1"/>
     </row>
     <row r="74" spans="2:10">
       <c r="B74" s="1"/>
-      <c r="D74" s="1">
-        <v>12</v>
-      </c>
-      <c r="E74" s="1">
-        <v>12</v>
-      </c>
-      <c r="F74" s="1">
-        <v>12</v>
-      </c>
-      <c r="G74" t="s">
-        <v>203</v>
-      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
       <c r="J74" s="1"/>
     </row>
     <row r="75" spans="2:10">
       <c r="B75" s="1"/>
-      <c r="D75" s="1">
-        <v>13</v>
-      </c>
-      <c r="E75" s="1">
-        <v>13</v>
-      </c>
-      <c r="F75" s="1">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s">
-        <v>215</v>
-      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
       <c r="J75" s="1"/>
     </row>
     <row r="76" spans="2:10">
       <c r="B76" s="1"/>
-      <c r="D76" s="1">
-        <v>14</v>
-      </c>
-      <c r="E76" s="1">
-        <v>14</v>
-      </c>
-      <c r="F76" s="1">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>177</v>
-      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
       <c r="J76" s="1"/>
     </row>
     <row r="77" spans="2:10">
       <c r="B77" s="1"/>
-      <c r="D77" s="1">
-        <v>15</v>
-      </c>
-      <c r="E77" s="1">
-        <v>15</v>
-      </c>
-      <c r="F77" s="1">
-        <v>15</v>
-      </c>
-      <c r="G77" t="s">
-        <v>192</v>
-      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
       <c r="J77" s="1"/>
     </row>
     <row r="78" spans="2:10">

--- a/report/Results.xlsx
+++ b/report/Results.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacharias.detorakis\Desktop\nov-city-ms-project\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A59AF2F-D6CE-4181-9804-F8DE53FDC081}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C5FD7D-8DEE-4768-8626-A06C6B50DAC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2019" sheetId="1" r:id="rId1"/>
-    <sheet name="2021" sheetId="3" r:id="rId2"/>
+    <sheet name="CEA 2019" sheetId="1" r:id="rId1"/>
+    <sheet name="CEA_2019" sheetId="4" r:id="rId2"/>
+    <sheet name="CTA 2021" sheetId="3" r:id="rId3"/>
+    <sheet name="cea_2021" sheetId="5" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="270">
   <si>
     <t>24.77 (34.86)</t>
   </si>
@@ -706,28 +711,145 @@
     <t>88.07 (91.28)</t>
   </si>
   <si>
-    <t>66.06 (72.94)</t>
-  </si>
-  <si>
     <t>86.24 (89.91)</t>
   </si>
   <si>
-    <t>83.49 (87.61)</t>
-  </si>
-  <si>
-    <t>76.15 (81.65)</t>
-  </si>
-  <si>
-    <t>80.73 (85.32)</t>
-  </si>
-  <si>
     <t>84.4 (88.99)</t>
   </si>
   <si>
     <t>88.99 (92.2)</t>
   </si>
   <si>
-    <t>89.91 (92.66)</t>
+    <t>TOP1</t>
+  </si>
+  <si>
+    <t>TOP2</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>f1_score</t>
+  </si>
+  <si>
+    <t>(1</t>
+  </si>
+  <si>
+    <t>(17.43</t>
+  </si>
+  <si>
+    <t>(2</t>
+  </si>
+  <si>
+    <t>(33.94</t>
+  </si>
+  <si>
+    <t>(3</t>
+  </si>
+  <si>
+    <t>(56.88</t>
+  </si>
+  <si>
+    <t>(4</t>
+  </si>
+  <si>
+    <t>(68.81</t>
+  </si>
+  <si>
+    <t>(5</t>
+  </si>
+  <si>
+    <t>(76.15</t>
+  </si>
+  <si>
+    <t>(6</t>
+  </si>
+  <si>
+    <t>(80.73</t>
+  </si>
+  <si>
+    <t>(7</t>
+  </si>
+  <si>
+    <t>(81.65</t>
+  </si>
+  <si>
+    <t>(8</t>
+  </si>
+  <si>
+    <t>(83.49</t>
+  </si>
+  <si>
+    <t>(9</t>
+  </si>
+  <si>
+    <t>(88.07</t>
+  </si>
+  <si>
+    <t>(10</t>
+  </si>
+  <si>
+    <t>(89.91</t>
+  </si>
+  <si>
+    <t>(11</t>
+  </si>
+  <si>
+    <t>(91.74</t>
+  </si>
+  <si>
+    <t>(12</t>
+  </si>
+  <si>
+    <t>(92.66</t>
+  </si>
+  <si>
+    <t>(13</t>
+  </si>
+  <si>
+    <t>(14</t>
+  </si>
+  <si>
+    <t>(15</t>
+  </si>
+  <si>
+    <t>parents-removed</t>
+  </si>
+  <si>
+    <t>66.06 (73.39)</t>
+  </si>
+  <si>
+    <t>81.65 (86.24)</t>
+  </si>
+  <si>
+    <t>90.83 (93.12)</t>
+  </si>
+  <si>
+    <t>top5 (sliding)</t>
+  </si>
+  <si>
+    <t>top10 (sliding)</t>
+  </si>
+  <si>
+    <t>67.89 (74.31)</t>
+  </si>
+  <si>
+    <t>78.9 (84.4)</t>
+  </si>
+  <si>
+    <t>84.4 (88.07)</t>
+  </si>
+  <si>
+    <t>65.14 (73.39)</t>
+  </si>
+  <si>
+    <t>68.81 (76.15)</t>
+  </si>
+  <si>
+    <t>79.82 (84.4)</t>
   </si>
 </sst>
 </file>
@@ -875,7 +997,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2019'!$J$3</c:f>
+              <c:f>'CEA 2019'!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -895,7 +1017,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'2019'!$I$4:$I$18</c:f>
+              <c:f>'CEA 2019'!$I$4:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -949,7 +1071,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2019'!$J$4:$J$18</c:f>
+              <c:f>'CEA 2019'!$J$4:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1013,7 +1135,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2019'!$K$3</c:f>
+              <c:f>'CEA 2019'!$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1033,7 +1155,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'2019'!$I$4:$I$18</c:f>
+              <c:f>'CEA 2019'!$I$4:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1087,7 +1209,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2019'!$K$4:$K$18</c:f>
+              <c:f>'CEA 2019'!$K$4:$K$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1151,7 +1273,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2019'!$L$3</c:f>
+              <c:f>'CEA 2019'!$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1171,7 +1293,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'2019'!$I$4:$I$18</c:f>
+              <c:f>'CEA 2019'!$I$4:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1225,7 +1347,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2019'!$L$4:$L$18</c:f>
+              <c:f>'CEA 2019'!$L$4:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1289,7 +1411,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2019'!$M$3</c:f>
+              <c:f>'CEA 2019'!$M$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1309,7 +1431,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'2019'!$I$4:$I$18</c:f>
+              <c:f>'CEA 2019'!$I$4:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1363,7 +1485,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2019'!$M$4:$M$18</c:f>
+              <c:f>'CEA 2019'!$M$4:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1427,7 +1549,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2019'!$N$3</c:f>
+              <c:f>'CEA 2019'!$N$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1447,7 +1569,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'2019'!$I$4:$I$18</c:f>
+              <c:f>'CEA 2019'!$I$4:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1501,7 +1623,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2019'!$N$4:$N$18</c:f>
+              <c:f>'CEA 2019'!$N$4:$N$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1924,7 +2046,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2019'!$N$21</c:f>
+              <c:f>'CEA 2019'!$N$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1959,7 +2081,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'2019'!$I$4:$I$18</c:f>
+              <c:f>'CEA 2019'!$I$4:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2013,7 +2135,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2019'!$J$4:$J$18</c:f>
+              <c:f>'CEA 2019'!$J$4:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2077,7 +2199,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2019'!$N$22</c:f>
+              <c:f>'CEA 2019'!$N$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2112,7 +2234,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'2019'!$I$23:$I$37</c:f>
+              <c:f>'CEA 2019'!$I$23:$I$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2166,7 +2288,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2019'!$J$23:$J$37</c:f>
+              <c:f>'CEA 2019'!$J$23:$J$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2230,7 +2352,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2019'!$N$40</c:f>
+              <c:f>'CEA 2019'!$N$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2265,7 +2387,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'2019'!$I$41:$I$55</c:f>
+              <c:f>'CEA 2019'!$I$41:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2319,7 +2441,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2019'!$J$41:$J$55</c:f>
+              <c:f>'CEA 2019'!$J$41:$J$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2383,7 +2505,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2019'!$N$56</c:f>
+              <c:f>'CEA 2019'!$N$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2418,7 +2540,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'2019'!$I$57:$I$61</c:f>
+              <c:f>'CEA 2019'!$I$76:$I$80</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2442,18 +2564,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2019'!$J$57:$J$61</c:f>
+              <c:f>'CEA 2019'!$J$76:$J$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>66.06</c:v>
+                  <c:v>67.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.98</c:v>
+                  <c:v>78.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83.49</c:v>
+                  <c:v>84.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>86.24</c:v>
@@ -2883,7 +3005,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2019'!$J$3</c:f>
+              <c:f>'CEA 2019'!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2894,7 +3016,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'2019'!$I$41:$I$55</c:f>
+              <c:f>'CEA 2019'!$I$41:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2948,7 +3070,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2019'!$J$41:$J$55</c:f>
+              <c:f>'CEA 2019'!$J$41:$J$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3012,7 +3134,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2019'!$K$3</c:f>
+              <c:f>'CEA 2019'!$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3023,7 +3145,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'2019'!$I$41:$I$55</c:f>
+              <c:f>'CEA 2019'!$I$41:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3077,7 +3199,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2019'!$K$41:$K$55</c:f>
+              <c:f>'CEA 2019'!$K$41:$K$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3141,7 +3263,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2019'!$L$3</c:f>
+              <c:f>'CEA 2019'!$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3152,7 +3274,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'2019'!$I$41:$I$55</c:f>
+              <c:f>'CEA 2019'!$I$41:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3206,7 +3328,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2019'!$L$41:$L$55</c:f>
+              <c:f>'CEA 2019'!$L$41:$L$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3270,7 +3392,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2019'!$M$3</c:f>
+              <c:f>'CEA 2019'!$M$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3281,7 +3403,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'2019'!$I$41:$I$55</c:f>
+              <c:f>'CEA 2019'!$I$41:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3335,7 +3457,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2019'!$M$41:$M$55</c:f>
+              <c:f>'CEA 2019'!$M$41:$M$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3399,7 +3521,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2019'!$N$3</c:f>
+              <c:f>'CEA 2019'!$N$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3410,7 +3532,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'2019'!$I$41:$I$55</c:f>
+              <c:f>'CEA 2019'!$I$41:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3464,7 +3586,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2019'!$N$41:$N$55</c:f>
+              <c:f>'CEA 2019'!$N$41:$N$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3868,18 +3990,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2019'!$J$3</c:f>
+              <c:f>'CEA 2019'!$J$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Rank (&lt;=1)</c:v>
+                  <c:v>top5 (sliding)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'2019'!$I$57:$I$66</c:f>
+              <c:f>'CEA 2019'!$I$76:$I$85</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3918,18 +4040,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2019'!$J$57:$J$66</c:f>
+              <c:f>'CEA 2019'!$J$76:$J$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>66.06</c:v>
+                  <c:v>67.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.98</c:v>
+                  <c:v>78.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83.49</c:v>
+                  <c:v>84.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>86.24</c:v>
@@ -3952,18 +4074,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2019'!$K$3</c:f>
+              <c:f>'CEA 2019'!$K$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Rank (&lt;=2)</c:v>
+                  <c:v>top10 (sliding)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'2019'!$I$57:$I$66</c:f>
+              <c:f>'CEA 2019'!$I$76:$I$85</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4002,7 +4124,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2019'!$K$57:$K$66</c:f>
+              <c:f>'CEA 2019'!$K$76:$K$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4010,22 +4132,22 @@
                   <c:v>66.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.150000000000006</c:v>
+                  <c:v>77.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80.73</c:v>
+                  <c:v>81.650000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84.4</c:v>
+                  <c:v>86.24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>88.99</c:v>
+                  <c:v>88.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>89.91</c:v>
+                  <c:v>90.83</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93.58</c:v>
+                  <c:v>92.66</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>93.58</c:v>
@@ -4259,9 +4381,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.77187276952136952"/>
+          <c:x val="0.65516245595327616"/>
           <c:y val="0.39750473045969675"/>
-          <c:w val="0.1381007612789461"/>
+          <c:w val="0.25481112574727371"/>
           <c:h val="0.37368364889492417"/>
         </c:manualLayout>
       </c:layout>
@@ -4356,6 +4478,1906 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
+              <a:t>Precision for Rank &lt;=5 Equal</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Vs Weighted Votes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10549936493139006"/>
+          <c:y val="0.15983583404298948"/>
+          <c:w val="0.82190921330728262"/>
+          <c:h val="0.63908144341616957"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CEA 2019'!$N$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>equal-vote</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CEA 2019'!$I$4:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CEA 2019'!$N$4:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>16.510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.99</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91.74</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>92.66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92.66</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92.66</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>92.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D5B7-4CD8-A462-01D8DF945F01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CEA 2019'!$N$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>weighted-vote</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CEA 2019'!$I$23:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CEA 2019'!$N$23:$N$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>19.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88.99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89.91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92.66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>92.66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>93.58</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93.58</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>93.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D5B7-4CD8-A462-01D8DF945F01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="512924024"/>
+        <c:axId val="512924352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="512924024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of top x candidate classes considered</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512924352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="512924352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Precision (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512924024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.74812551950698492"/>
+          <c:y val="0.4899122567152055"/>
+          <c:w val="0.16659290731317686"/>
+          <c:h val="0.29861629024499081"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Precision for Rank 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10549936493139006"/>
+          <c:y val="0.15983583404298948"/>
+          <c:w val="0.82190921330728262"/>
+          <c:h val="0.63908144341616957"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CEA 2019'!$N$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>equal-vote</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CEA 2019'!$I$4:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CEA 2019'!$J$4:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>24.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.8</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>74.31</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>83.49</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>88.07</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>88.99</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>89.91</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>90.83</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>90.83</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>92.66</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>92.66</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>92.66</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>92.66</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>92.66</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>92.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4EA1-49CD-9920-086058C15907}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CEA 2019'!$N$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>weighted-vote</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CEA 2019'!$I$23:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CEA 2019'!$J$23:$J$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>24.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89.91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.83</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92.66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92.66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>92.66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92.66</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92.66</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>92.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4EA1-49CD-9920-086058C15907}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CEA 2019'!$N$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tfidf-vote</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CEA 2019'!$I$41:$I$55</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CEA 2019'!$J$41:$J$55</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>75.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.74</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93.58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93.58</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>93.58</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93.58</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>93.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4EA1-49CD-9920-086058C15907}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CEA 2019'!$F$99</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>parents-removed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CEA 2019'!$I$41:$I$55</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CEA 2019'!$F$100:$F$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>37.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>63.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4EA1-49CD-9920-086058C15907}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CEA 2019'!$N$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cnn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CEA 2019'!$I$76:$I$85</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CEA 2019'!$K$76:$K$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>66.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4EA1-49CD-9920-086058C15907}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="512924024"/>
+        <c:axId val="512924352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="512924024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of top x candidate classes considered</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512924352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="512924352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Precision (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512924024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.7125517110876789"/>
+          <c:y val="0.48991236280390943"/>
+          <c:w val="0.20611933730132551"/>
+          <c:h val="0.29861629024499081"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
               <a:t>Precision for Various ranks</a:t>
             </a:r>
           </a:p>
@@ -4391,7 +6413,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2021'!$J$3</c:f>
+              <c:f>'CTA 2021'!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4411,7 +6433,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'2021'!$I$4:$I$18</c:f>
+              <c:f>'CTA 2021'!$I$4:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4465,7 +6487,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2021'!$J$4:$J$18</c:f>
+              <c:f>'CTA 2021'!$J$4:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4529,7 +6551,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2021'!$K$3</c:f>
+              <c:f>'CTA 2021'!$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4549,7 +6571,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'2021'!$I$4:$I$18</c:f>
+              <c:f>'CTA 2021'!$I$4:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4603,7 +6625,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2021'!$K$4:$K$18</c:f>
+              <c:f>'CTA 2021'!$K$4:$K$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4667,7 +6689,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2021'!$L$3</c:f>
+              <c:f>'CTA 2021'!$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4687,7 +6709,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'2021'!$I$4:$I$18</c:f>
+              <c:f>'CTA 2021'!$I$4:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4741,7 +6763,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2021'!$L$4:$L$18</c:f>
+              <c:f>'CTA 2021'!$L$4:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4805,7 +6827,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2021'!$M$3</c:f>
+              <c:f>'CTA 2021'!$M$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4825,7 +6847,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'2021'!$I$4:$I$18</c:f>
+              <c:f>'CTA 2021'!$I$4:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4879,7 +6901,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2021'!$M$4:$M$18</c:f>
+              <c:f>'CTA 2021'!$M$4:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4943,7 +6965,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2021'!$N$3</c:f>
+              <c:f>'CTA 2021'!$N$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4963,7 +6985,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'2021'!$I$4:$I$18</c:f>
+              <c:f>'CTA 2021'!$I$4:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5017,7 +7039,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2021'!$N$4:$N$18</c:f>
+              <c:f>'CTA 2021'!$N$4:$N$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5350,7 +7372,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5440,7 +7462,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2021'!$N$21</c:f>
+              <c:f>'CTA 2021'!$N$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5475,7 +7497,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'2021'!$I$4:$I$18</c:f>
+              <c:f>'CTA 2021'!$I$4:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5529,7 +7551,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2021'!$J$4:$J$18</c:f>
+              <c:f>'CTA 2021'!$J$4:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5593,7 +7615,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2021'!$N$22</c:f>
+              <c:f>'CTA 2021'!$N$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5628,7 +7650,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'2021'!$I$23:$I$37</c:f>
+              <c:f>'CTA 2021'!$I$23:$I$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5682,7 +7704,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2021'!$J$23:$J$37</c:f>
+              <c:f>'CTA 2021'!$J$23:$J$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5746,7 +7768,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2021'!$N$40</c:f>
+              <c:f>'CTA 2021'!$N$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5781,7 +7803,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'2021'!$I$41:$I$55</c:f>
+              <c:f>'CTA 2021'!$I$41:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5835,7 +7857,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2021'!$J$41:$J$55</c:f>
+              <c:f>'CTA 2021'!$J$41:$J$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5899,7 +7921,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2021'!$J$57</c:f>
+              <c:f>'CTA 2021'!$J$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5934,7 +7956,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'2021'!$I$58:$I$62</c:f>
+              <c:f>'CTA 2021'!$I$58:$I$62</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5958,7 +7980,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2021'!$J$58:$J$62</c:f>
+              <c:f>'CTA 2021'!$J$58:$J$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6330,7 +8352,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6400,7 +8422,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2021'!$J$3</c:f>
+              <c:f>'CTA 2021'!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6411,7 +8433,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'2021'!$I$41:$I$55</c:f>
+              <c:f>'CTA 2021'!$I$41:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -6465,7 +8487,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2021'!$J$41:$J$55</c:f>
+              <c:f>'CTA 2021'!$J$41:$J$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -6529,7 +8551,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2021'!$K$3</c:f>
+              <c:f>'CTA 2021'!$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6540,7 +8562,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'2021'!$I$41:$I$55</c:f>
+              <c:f>'CTA 2021'!$I$41:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -6594,7 +8616,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2021'!$K$41:$K$55</c:f>
+              <c:f>'CTA 2021'!$K$41:$K$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -6658,7 +8680,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2021'!$L$3</c:f>
+              <c:f>'CTA 2021'!$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6669,7 +8691,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'2021'!$I$41:$I$55</c:f>
+              <c:f>'CTA 2021'!$I$41:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -6723,7 +8745,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2021'!$L$41:$L$55</c:f>
+              <c:f>'CTA 2021'!$L$41:$L$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -6787,7 +8809,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2021'!$M$3</c:f>
+              <c:f>'CTA 2021'!$M$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6798,7 +8820,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'2021'!$I$41:$I$55</c:f>
+              <c:f>'CTA 2021'!$I$41:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -6852,7 +8874,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2021'!$M$41:$M$55</c:f>
+              <c:f>'CTA 2021'!$M$41:$M$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -6916,7 +8938,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2021'!$N$3</c:f>
+              <c:f>'CTA 2021'!$N$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6927,7 +8949,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'2021'!$I$41:$I$55</c:f>
+              <c:f>'CTA 2021'!$I$41:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -6981,7 +9003,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2021'!$N$41:$N$55</c:f>
+              <c:f>'CTA 2021'!$N$41:$N$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -7356,6 +9378,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8427,6 +10529,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8545,13 +11679,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>293782</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>2056</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8574,6 +11708,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>293782</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>181349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE5AF8B4-5A3F-46C9-BDE9-7A31C9D5ADB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>293782</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>181349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{507C801E-C9D8-4FE1-9729-09B86F861030}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8699,6 +11909,19 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="2019"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8998,10 +12221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:N103"/>
+  <dimension ref="A3:N135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD54" sqref="AD54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76:E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10821,281 +14044,788 @@
       </c>
     </row>
     <row r="56" spans="2:14">
-      <c r="B56" s="1"/>
-      <c r="N56" t="s">
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="B75" s="1"/>
+      <c r="J75" t="s">
+        <v>262</v>
+      </c>
+      <c r="K75" t="s">
+        <v>263</v>
+      </c>
+      <c r="N75" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="57" spans="2:14">
-      <c r="B57">
+    <row r="76" spans="1:14">
+      <c r="A76" t="s">
+        <v>221</v>
+      </c>
+      <c r="B76">
         <v>1</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C76" t="s">
+        <v>264</v>
+      </c>
+      <c r="D76" t="s">
+        <v>259</v>
+      </c>
+      <c r="E76" t="s">
+        <v>268</v>
+      </c>
+      <c r="F76" t="s">
+        <v>267</v>
+      </c>
+      <c r="I76" s="2">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>67.89</v>
+      </c>
+      <c r="K76">
+        <v>66.06</v>
+      </c>
+      <c r="L76">
+        <v>68.81</v>
+      </c>
+      <c r="M76">
+        <v>65.14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>265</v>
+      </c>
+      <c r="D77" t="s">
+        <v>61</v>
+      </c>
+      <c r="E77" t="s">
+        <v>269</v>
+      </c>
+      <c r="F77" t="s">
+        <v>61</v>
+      </c>
+      <c r="I77" s="2">
+        <v>2</v>
+      </c>
+      <c r="J77">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="K77">
+        <v>77.06</v>
+      </c>
+      <c r="L77">
+        <v>79.819999999999993</v>
+      </c>
+      <c r="M77">
+        <v>77.06</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>266</v>
+      </c>
+      <c r="D78" t="s">
+        <v>260</v>
+      </c>
+      <c r="E78" t="s">
+        <v>266</v>
+      </c>
+      <c r="F78" t="s">
+        <v>260</v>
+      </c>
+      <c r="I78" s="2">
+        <v>3</v>
+      </c>
+      <c r="J78">
+        <v>84.4</v>
+      </c>
+      <c r="K78">
+        <v>81.650000000000006</v>
+      </c>
+      <c r="L78">
+        <v>84.4</v>
+      </c>
+      <c r="M78">
+        <v>81.650000000000006</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
         <v>223</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D79" t="s">
+        <v>40</v>
+      </c>
+      <c r="E79" t="s">
         <v>223</v>
       </c>
-      <c r="I57" s="2">
+      <c r="F79" t="s">
+        <v>224</v>
+      </c>
+      <c r="I79" s="2">
+        <v>4</v>
+      </c>
+      <c r="J79">
+        <v>86.24</v>
+      </c>
+      <c r="K79">
+        <v>86.24</v>
+      </c>
+      <c r="L79">
+        <v>86.24</v>
+      </c>
+      <c r="M79">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>222</v>
+      </c>
+      <c r="D80" t="s">
+        <v>222</v>
+      </c>
+      <c r="E80" t="s">
+        <v>222</v>
+      </c>
+      <c r="F80" t="s">
+        <v>225</v>
+      </c>
+      <c r="I80" s="2">
+        <v>5</v>
+      </c>
+      <c r="J80">
+        <v>88.07</v>
+      </c>
+      <c r="K80">
+        <v>88.07</v>
+      </c>
+      <c r="L80">
+        <v>88.07</v>
+      </c>
+      <c r="M80">
+        <v>88.99</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13">
+      <c r="B81" s="1"/>
+      <c r="D81" t="s">
+        <v>261</v>
+      </c>
+      <c r="F81" t="s">
+        <v>261</v>
+      </c>
+      <c r="I81" s="2">
+        <v>6</v>
+      </c>
+      <c r="K81">
+        <v>90.83</v>
+      </c>
+      <c r="M81">
+        <v>90.83</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13">
+      <c r="B82" s="1"/>
+      <c r="D82" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" s="2">
+        <v>7</v>
+      </c>
+      <c r="K82">
+        <v>92.66</v>
+      </c>
+      <c r="M82">
+        <v>93.58</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13">
+      <c r="B83" s="1"/>
+      <c r="D83" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83" s="2">
+        <v>8</v>
+      </c>
+      <c r="K83">
+        <v>93.58</v>
+      </c>
+      <c r="M83">
+        <v>93.58</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13">
+      <c r="B84" s="1"/>
+      <c r="D84" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" s="2">
+        <v>9</v>
+      </c>
+      <c r="K84">
+        <v>93.58</v>
+      </c>
+      <c r="M84">
+        <v>93.58</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13">
+      <c r="B85" s="1"/>
+      <c r="D85" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" s="2">
+        <v>10</v>
+      </c>
+      <c r="K85">
+        <v>93.58</v>
+      </c>
+      <c r="M85">
+        <v>93.58</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13">
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="2:13">
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="2:13">
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="2:13">
+      <c r="B89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="2:13">
+      <c r="B90" s="1"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="2:13">
+      <c r="B91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="2:13">
+      <c r="B92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="2:13">
+      <c r="B93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="2:13">
+      <c r="B94" s="1"/>
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="2:13">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="I95" s="1">
         <v>1</v>
       </c>
-      <c r="J57">
-        <v>66.06</v>
-      </c>
-      <c r="K57">
-        <v>66.06</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14">
-      <c r="B58">
+      <c r="J95" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="I96" s="1">
         <v>2</v>
       </c>
-      <c r="C58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" t="s">
-        <v>226</v>
-      </c>
-      <c r="I58" s="2">
-        <v>2</v>
-      </c>
-      <c r="J58">
-        <v>77.98</v>
-      </c>
-      <c r="K58">
-        <v>76.150000000000006</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14">
-      <c r="B59">
+      <c r="J96" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="I97" s="1">
         <v>3</v>
       </c>
-      <c r="C59" t="s">
-        <v>225</v>
-      </c>
-      <c r="D59" t="s">
-        <v>227</v>
-      </c>
-      <c r="I59" s="2">
-        <v>3</v>
-      </c>
-      <c r="J59">
-        <v>83.49</v>
-      </c>
-      <c r="K59">
-        <v>80.73</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14">
-      <c r="B60">
+      <c r="J97" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="I98" s="1">
         <v>4</v>
       </c>
-      <c r="C60" t="s">
-        <v>224</v>
-      </c>
-      <c r="D60" t="s">
-        <v>228</v>
-      </c>
-      <c r="I60" s="2">
-        <v>4</v>
-      </c>
-      <c r="J60">
-        <v>86.24</v>
-      </c>
-      <c r="K60">
-        <v>84.4</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14">
-      <c r="B61">
+      <c r="J98" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="F99" t="s">
+        <v>258</v>
+      </c>
+      <c r="I99" s="1">
         <v>5</v>
       </c>
-      <c r="C61" t="s">
+      <c r="J99" t="s">
         <v>222</v>
       </c>
-      <c r="D61" t="s">
-        <v>229</v>
-      </c>
-      <c r="I61" s="2">
-        <v>5</v>
-      </c>
-      <c r="J61">
-        <v>88.07</v>
-      </c>
-      <c r="K61">
-        <v>88.99</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14">
-      <c r="B62" s="1"/>
-      <c r="D62" t="s">
-        <v>230</v>
-      </c>
-      <c r="I62" s="2">
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D100" t="s">
+        <v>232</v>
+      </c>
+      <c r="F100">
+        <v>37.61</v>
+      </c>
+      <c r="I100" s="1">
         <v>6</v>
       </c>
-      <c r="K62">
-        <v>89.91</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14">
-      <c r="B63" s="1"/>
-      <c r="D63" t="s">
+      <c r="J100" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" t="s">
+        <v>233</v>
+      </c>
+      <c r="E101" t="s">
+        <v>234</v>
+      </c>
+      <c r="F101">
+        <v>55.05</v>
+      </c>
+      <c r="I101" s="1">
+        <v>7</v>
+      </c>
+      <c r="J101" t="s">
         <v>17</v>
       </c>
-      <c r="I63" s="2">
-        <v>7</v>
-      </c>
-      <c r="K63">
-        <v>93.58</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14">
-      <c r="B64" s="1"/>
-      <c r="D64" t="s">
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" t="s">
+        <v>235</v>
+      </c>
+      <c r="E102" t="s">
+        <v>236</v>
+      </c>
+      <c r="F102">
+        <v>55.96</v>
+      </c>
+      <c r="I102" s="1">
+        <v>8</v>
+      </c>
+      <c r="J102" t="s">
         <v>17</v>
       </c>
-      <c r="I64" s="2">
-        <v>8</v>
-      </c>
-      <c r="K64">
-        <v>93.58</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11">
-      <c r="B65" s="1"/>
-      <c r="D65" t="s">
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" t="s">
+        <v>237</v>
+      </c>
+      <c r="E103" t="s">
+        <v>238</v>
+      </c>
+      <c r="F103">
+        <v>59.63</v>
+      </c>
+      <c r="I103" s="1">
+        <v>9</v>
+      </c>
+      <c r="J103" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="2">
-        <v>9</v>
-      </c>
-      <c r="K65">
-        <v>93.58</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11">
-      <c r="B66" s="1"/>
-      <c r="D66" t="s">
+    </row>
+    <row r="104" spans="2:10">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" t="s">
+        <v>239</v>
+      </c>
+      <c r="E104" t="s">
+        <v>240</v>
+      </c>
+      <c r="F104">
+        <v>60.55</v>
+      </c>
+      <c r="I104" s="1">
+        <v>10</v>
+      </c>
+      <c r="J104" t="s">
         <v>17</v>
       </c>
-      <c r="I66" s="2">
-        <v>10</v>
-      </c>
-      <c r="K66">
-        <v>93.58</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11">
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="2:11">
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="2:11">
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="2:11">
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="2:11">
-      <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="2:11">
-      <c r="B72" s="1"/>
-    </row>
-    <row r="73" spans="2:11">
-      <c r="B73" s="1"/>
-    </row>
-    <row r="74" spans="2:11">
-      <c r="B74" s="1"/>
-    </row>
-    <row r="75" spans="2:11">
-      <c r="B75" s="1"/>
-    </row>
-    <row r="76" spans="2:11">
-      <c r="B76" s="1"/>
-    </row>
-    <row r="77" spans="2:11">
-      <c r="B77" s="1"/>
-    </row>
-    <row r="78" spans="2:11">
-      <c r="B78" s="1"/>
-    </row>
-    <row r="79" spans="2:11">
-      <c r="B79" s="1"/>
-    </row>
-    <row r="80" spans="2:11">
-      <c r="B80" s="1"/>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="1"/>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="1"/>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="1"/>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="1"/>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="1"/>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86" s="1"/>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="1"/>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="1"/>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="1"/>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="1"/>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="1"/>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" s="1"/>
-    </row>
-    <row r="93" spans="2:2">
-      <c r="B93" s="1"/>
-    </row>
-    <row r="94" spans="2:2">
-      <c r="B94" s="1"/>
-    </row>
-    <row r="95" spans="2:2">
-      <c r="B95" s="1"/>
-    </row>
-    <row r="96" spans="2:2">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="1"/>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" t="s">
+        <v>241</v>
+      </c>
+      <c r="E105" t="s">
+        <v>242</v>
+      </c>
+      <c r="F105">
+        <v>60.55</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" t="s">
+        <v>243</v>
+      </c>
+      <c r="E106" t="s">
+        <v>244</v>
+      </c>
+      <c r="F106">
+        <v>60.55</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10">
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" t="s">
+        <v>245</v>
+      </c>
+      <c r="E107" t="s">
+        <v>246</v>
+      </c>
+      <c r="F107">
+        <v>60.55</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" t="s">
+        <v>247</v>
+      </c>
+      <c r="E108" t="s">
+        <v>248</v>
+      </c>
+      <c r="F108">
+        <v>62.39</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" t="s">
+        <v>249</v>
+      </c>
+      <c r="E109" t="s">
+        <v>250</v>
+      </c>
+      <c r="F109">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" t="s">
+        <v>251</v>
+      </c>
+      <c r="E110" t="s">
+        <v>252</v>
+      </c>
+      <c r="F110">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" t="s">
+        <v>253</v>
+      </c>
+      <c r="E111" t="s">
+        <v>254</v>
+      </c>
+      <c r="F111">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10">
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" t="s">
+        <v>255</v>
+      </c>
+      <c r="E112" t="s">
+        <v>254</v>
+      </c>
+      <c r="F112">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6">
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" t="s">
+        <v>256</v>
+      </c>
+      <c r="E113" t="s">
+        <v>254</v>
+      </c>
+      <c r="F113">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" t="s">
+        <v>257</v>
+      </c>
+      <c r="E114" t="s">
+        <v>254</v>
+      </c>
+      <c r="F114">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="B115" s="1"/>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="B116" s="1"/>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="2:6">
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" spans="2:6">
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="2:6">
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="2:6">
+      <c r="B122" s="1"/>
+    </row>
+    <row r="126" spans="2:6">
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" spans="2:6">
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" spans="2:6">
+      <c r="B128" s="1"/>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="1"/>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="1"/>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="1"/>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -11106,11 +14836,118 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12456E4C-64BA-4DEC-B5F0-6D602153DF6C}">
+  <dimension ref="A4:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="B5:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="5.26953125" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" s="2">
+        <v>69.694740713497595</v>
+      </c>
+      <c r="C5" s="2">
+        <v>67.541879529523499</v>
+      </c>
+      <c r="D5" s="2">
+        <v>68.601423916978305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="2">
+        <v>86.0678276810265</v>
+      </c>
+      <c r="C6" s="2">
+        <v>66.935962932161104</v>
+      </c>
+      <c r="D6" s="2">
+        <v>75.3057541936777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="2">
+        <v>75.211474806914296</v>
+      </c>
+      <c r="C7" s="2">
+        <v>72.888202447427801</v>
+      </c>
+      <c r="D7" s="2">
+        <v>74.031615783757601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="2">
+        <v>69.694740713497595</v>
+      </c>
+      <c r="C8" s="2">
+        <v>67.541879529523499</v>
+      </c>
+      <c r="D8" s="2">
+        <v>68.601423916978305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2">
+        <v>79.771205357142804</v>
+      </c>
+      <c r="C9" s="2">
+        <v>67.9339432101699</v>
+      </c>
+      <c r="D9" s="2">
+        <v>73.378248315688097</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2">
+        <v>73.249969351477205</v>
+      </c>
+      <c r="C10" s="2">
+        <v>70.987287632172894</v>
+      </c>
+      <c r="D10" s="2">
+        <v>72.100880897791697</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:N120"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57:C61"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -13276,4 +17113,110 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC52BA99-EF19-4441-9084-8362985AAAB6}">
+  <dimension ref="A2:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="2">
+        <v>77.341046775429206</v>
+      </c>
+      <c r="C3" s="2">
+        <v>70.425340839229904</v>
+      </c>
+      <c r="D3" s="2">
+        <v>73.721360695726702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="2">
+        <v>84.170900167501799</v>
+      </c>
+      <c r="C4" s="2">
+        <v>73.597918198584793</v>
+      </c>
+      <c r="D4" s="2">
+        <v>78.530131484595799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="2">
+        <v>81.8658542841209</v>
+      </c>
+      <c r="C5" s="2">
+        <v>74.545547693383298</v>
+      </c>
+      <c r="D5" s="2">
+        <v>78.034399894634603</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="2">
+        <v>77.341046775429206</v>
+      </c>
+      <c r="C6" s="2">
+        <v>70.425340839229904</v>
+      </c>
+      <c r="D6" s="2">
+        <v>73.721360695726702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="2">
+        <v>83.836380380653495</v>
+      </c>
+      <c r="C7" s="2">
+        <v>74.071958966693501</v>
+      </c>
+      <c r="D7" s="2">
+        <v>78.652273250902297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="2">
+        <v>81.978875185541199</v>
+      </c>
+      <c r="C8" s="2">
+        <v>74.648462456453302</v>
+      </c>
+      <c r="D8" s="2">
+        <v>78.142131235069598</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/report/Results.xlsx
+++ b/report/Results.xlsx
@@ -8,19 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacharias.detorakis\Desktop\nov-city-ms-project\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C5FD7D-8DEE-4768-8626-A06C6B50DAC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562FA58B-0714-42FE-9862-1F9BA9A05D9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CEA 2019" sheetId="1" r:id="rId1"/>
+    <sheet name="CTA 2019" sheetId="1" r:id="rId1"/>
     <sheet name="CEA_2019" sheetId="4" r:id="rId2"/>
     <sheet name="CTA 2021" sheetId="3" r:id="rId3"/>
     <sheet name="cea_2021" sheetId="5" r:id="rId4"/>
+    <sheet name="Comparison" sheetId="6" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="300">
   <si>
     <t>24.77 (34.86)</t>
   </si>
@@ -828,12 +826,6 @@
     <t>90.83 (93.12)</t>
   </si>
   <si>
-    <t>top5 (sliding)</t>
-  </si>
-  <si>
-    <t>top10 (sliding)</t>
-  </si>
-  <si>
     <t>67.89 (74.31)</t>
   </si>
   <si>
@@ -850,13 +842,113 @@
   </si>
   <si>
     <t>79.82 (84.4)</t>
+  </si>
+  <si>
+    <t>top 5</t>
+  </si>
+  <si>
+    <t>top 10</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>ssss</t>
+  </si>
+  <si>
+    <t>2T DBPedia</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>F1-Score</t>
+  </si>
+  <si>
+    <t>DAGOBAH team</t>
+  </si>
+  <si>
+    <t>JenTab</t>
+  </si>
+  <si>
+    <t>GBMTab/seudocode</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>KEPLER-aSI</t>
+  </si>
+  <si>
+    <t>Zac Detorakis</t>
+  </si>
+  <si>
+    <t>Team_sti</t>
+  </si>
+  <si>
+    <t>MTab</t>
+  </si>
+  <si>
+    <t>Team_DAGOBAH</t>
+  </si>
+  <si>
+    <t>Tabularisi</t>
+  </si>
+  <si>
+    <t>bbk</t>
+  </si>
+  <si>
+    <t>LOD4ALL</t>
+  </si>
+  <si>
+    <t>Tabularisi 2</t>
+  </si>
+  <si>
+    <t>PAT-SEU/zhangyi</t>
+  </si>
+  <si>
+    <t>VectorUP</t>
+  </si>
+  <si>
+    <t>ADOG</t>
+  </si>
+  <si>
+    <t>IDLab</t>
+  </si>
+  <si>
+    <t>CEA Task</t>
+  </si>
+  <si>
+    <t>Zacharias Detorakis</t>
+  </si>
+  <si>
+    <t>CTA Task</t>
+  </si>
+  <si>
+    <t>Siemens Munich</t>
+  </si>
+  <si>
+    <t>f-ym</t>
+  </si>
+  <si>
+    <t>ahmad88me</t>
+  </si>
+  <si>
+    <t>It's all semantics</t>
+  </si>
+  <si>
+    <t>kzafeiroudi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="173" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -880,13 +972,47 @@
       <color theme="1"/>
       <name val="Var(--jp-code-font-family)"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -898,10 +1024,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -910,11 +1037,448 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -997,7 +1561,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CEA 2019'!$J$3</c:f>
+              <c:f>'CTA 2019'!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1017,7 +1581,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$I$4:$I$18</c:f>
+              <c:f>'CTA 2019'!$I$4:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1071,7 +1635,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$J$4:$J$18</c:f>
+              <c:f>'CTA 2019'!$J$4:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1135,7 +1699,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CEA 2019'!$K$3</c:f>
+              <c:f>'CTA 2019'!$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1155,7 +1719,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$I$4:$I$18</c:f>
+              <c:f>'CTA 2019'!$I$4:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1209,7 +1773,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$K$4:$K$18</c:f>
+              <c:f>'CTA 2019'!$K$4:$K$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1273,7 +1837,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CEA 2019'!$L$3</c:f>
+              <c:f>'CTA 2019'!$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1293,7 +1857,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$I$4:$I$18</c:f>
+              <c:f>'CTA 2019'!$I$4:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1347,7 +1911,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$L$4:$L$18</c:f>
+              <c:f>'CTA 2019'!$L$4:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1411,7 +1975,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CEA 2019'!$M$3</c:f>
+              <c:f>'CTA 2019'!$M$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1431,7 +1995,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$I$4:$I$18</c:f>
+              <c:f>'CTA 2019'!$I$4:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1485,7 +2049,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$M$4:$M$18</c:f>
+              <c:f>'CTA 2019'!$M$4:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1549,7 +2113,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CEA 2019'!$N$3</c:f>
+              <c:f>'CTA 2019'!$N$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1569,7 +2133,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$I$4:$I$18</c:f>
+              <c:f>'CTA 2019'!$I$4:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1623,7 +2187,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$N$4:$N$18</c:f>
+              <c:f>'CTA 2019'!$N$4:$N$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1956,6 +2520,1985 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Easy Dataset</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10549936493139006"/>
+          <c:y val="0.15983583404298948"/>
+          <c:w val="0.82190921330728262"/>
+          <c:h val="0.63908144341616957"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CTA 2019'!$N$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>equal-vote</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CTA 2019'!$I$4:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CTA 2019'!$J$4:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>24.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.8</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>74.31</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>83.49</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>88.07</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>88.99</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>89.91</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>90.83</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>90.83</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>92.66</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>92.66</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>92.66</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>92.66</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>92.66</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>92.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1913-47A6-884E-08CD945C9CE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CTA 2019'!$N$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>weighted-vote</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CTA 2019'!$I$23:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CTA 2019'!$J$23:$J$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>24.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89.91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.83</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92.66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92.66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>92.66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92.66</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92.66</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>92.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1913-47A6-884E-08CD945C9CE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CTA 2019'!$N$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tfidf-vote</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CTA 2019'!$I$41:$I$55</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CTA 2019'!$J$41:$J$55</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>75.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.74</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93.58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93.58</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>93.58</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93.58</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>93.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1913-47A6-884E-08CD945C9CE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CTA 2019'!$N$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cnn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CTA 2019'!$I$76:$I$80</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CTA 2019'!$J$76:$J$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>67.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.07</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1913-47A6-884E-08CD945C9CE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="512924024"/>
+        <c:axId val="512924352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="512924024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of top x candidate classes considered</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512924352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="512924352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Precision (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512924024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.51479232283464571"/>
+          <c:y val="0.4899122567152055"/>
+          <c:w val="0.39992618110236222"/>
+          <c:h val="0.29861629024499081"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Diffucult</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Dataset</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10864371922292232"/>
+          <c:y val="0.15983583404298948"/>
+          <c:w val="0.79342023974370535"/>
+          <c:h val="0.63908144341616957"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CTA 2021'!$N$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>equal-vote</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CTA 2021'!$I$4:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CTA 2021'!$J$4:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>24.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.930000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83.27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>83.27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83.27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>83.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7F6B-4F85-A67C-15AD239D5C53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CTA 2021'!$N$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>weighted-vote</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CTA 2021'!$I$23:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CTA 2021'!$J$23:$J$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>24.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.930000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83.27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>83.27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83.27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>83.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7F6B-4F85-A67C-15AD239D5C53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CTA 2021'!$N$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tfidf-vote</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CTA 2021'!$I$41:$I$55</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CTA 2021'!$J$41:$J$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>38.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82.53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82.71</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83.27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>83.27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83.27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>83.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7F6B-4F85-A67C-15AD239D5C53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CTA 2021'!$J$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cnn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CTA 2021'!$I$58:$I$62</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CTA 2021'!$J$58:$J$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>28.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7F6B-4F85-A67C-15AD239D5C53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="512924024"/>
+        <c:axId val="512924352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="512924024"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="5"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of top x candidate classes considered</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512924352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="512924352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Precision (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.3910788466738223E-2"/>
+              <c:y val="0.33826569635442294"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512924024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11833900054896886"/>
+          <c:y val="0.48618168319823213"/>
+          <c:w val="0.3735406851458864"/>
+          <c:h val="0.29601636754460936"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -2046,7 +4589,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CEA 2019'!$N$21</c:f>
+              <c:f>'CTA 2019'!$N$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2081,7 +4624,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$I$4:$I$18</c:f>
+              <c:f>'CTA 2019'!$I$4:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2135,7 +4678,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$J$4:$J$18</c:f>
+              <c:f>'CTA 2019'!$J$4:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2199,7 +4742,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CEA 2019'!$N$22</c:f>
+              <c:f>'CTA 2019'!$N$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2234,7 +4777,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$I$23:$I$37</c:f>
+              <c:f>'CTA 2019'!$I$23:$I$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2288,7 +4831,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$J$23:$J$37</c:f>
+              <c:f>'CTA 2019'!$J$23:$J$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2352,7 +4895,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CEA 2019'!$N$40</c:f>
+              <c:f>'CTA 2019'!$N$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2387,7 +4930,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$I$41:$I$55</c:f>
+              <c:f>'CTA 2019'!$I$41:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2441,7 +4984,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$J$41:$J$55</c:f>
+              <c:f>'CTA 2019'!$J$41:$J$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2505,7 +5048,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CEA 2019'!$N$75</c:f>
+              <c:f>'CTA 2019'!$N$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2540,7 +5083,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$I$76:$I$80</c:f>
+              <c:f>'CTA 2019'!$I$76:$I$80</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2564,7 +5107,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$J$76:$J$80</c:f>
+              <c:f>'CTA 2019'!$J$76:$J$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3005,7 +5548,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CEA 2019'!$J$3</c:f>
+              <c:f>'CTA 2019'!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3016,7 +5559,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$I$41:$I$55</c:f>
+              <c:f>'CTA 2019'!$I$41:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3070,7 +5613,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$J$41:$J$55</c:f>
+              <c:f>'CTA 2019'!$J$41:$J$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3134,7 +5677,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CEA 2019'!$K$3</c:f>
+              <c:f>'CTA 2019'!$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3145,7 +5688,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$I$41:$I$55</c:f>
+              <c:f>'CTA 2019'!$I$41:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3199,7 +5742,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$K$41:$K$55</c:f>
+              <c:f>'CTA 2019'!$K$41:$K$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3263,7 +5806,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CEA 2019'!$L$3</c:f>
+              <c:f>'CTA 2019'!$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3274,7 +5817,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$I$41:$I$55</c:f>
+              <c:f>'CTA 2019'!$I$41:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3328,7 +5871,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$L$41:$L$55</c:f>
+              <c:f>'CTA 2019'!$L$41:$L$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3392,7 +5935,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CEA 2019'!$M$3</c:f>
+              <c:f>'CTA 2019'!$M$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3403,7 +5946,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$I$41:$I$55</c:f>
+              <c:f>'CTA 2019'!$I$41:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3457,7 +6000,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$M$41:$M$55</c:f>
+              <c:f>'CTA 2019'!$M$41:$M$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3521,7 +6064,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CEA 2019'!$N$3</c:f>
+              <c:f>'CTA 2019'!$N$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3532,7 +6075,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$I$41:$I$55</c:f>
+              <c:f>'CTA 2019'!$I$41:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3586,7 +6129,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$N$41:$N$55</c:f>
+              <c:f>'CTA 2019'!$N$41:$N$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3990,18 +6533,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CEA 2019'!$J$75</c:f>
+              <c:f>'CTA 2019'!$J$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>top5 (sliding)</c:v>
+                  <c:v>top 5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$I$76:$I$85</c:f>
+              <c:f>'CTA 2019'!$I$76:$I$85</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4040,7 +6583,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$J$76:$J$85</c:f>
+              <c:f>'CTA 2019'!$J$76:$J$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4074,18 +6617,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CEA 2019'!$K$75</c:f>
+              <c:f>'CTA 2019'!$K$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>top10 (sliding)</c:v>
+                  <c:v>top 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$I$76:$I$85</c:f>
+              <c:f>'CTA 2019'!$I$76:$I$85</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4124,7 +6667,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$K$76:$K$85</c:f>
+              <c:f>'CTA 2019'!$K$76:$K$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4165,6 +6708,135 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1BF2-4CD1-BBFE-636194839182}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CTA 2019'!$L$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>all</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CTA 2019'!$I$76:$I$90</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CTA 2019'!$L$76:$L$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>45.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88.99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88.99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93.58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>94.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>94.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>94.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FE04-48BB-84DA-105898CF8C9C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4280,7 +6952,6 @@
         <c:axId val="512924352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4381,10 +7052,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.65516245595327616"/>
-          <c:y val="0.39750473045969675"/>
-          <c:w val="0.25481112574727371"/>
-          <c:h val="0.37368364889492417"/>
+          <c:x val="0.72718356719999411"/>
+          <c:y val="0.56118932882628381"/>
+          <c:w val="0.1933470833078009"/>
+          <c:h val="0.22396213966884054"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4538,7 +7209,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CEA 2019'!$N$21</c:f>
+              <c:f>'CTA 2019'!$N$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4573,7 +7244,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$I$4:$I$18</c:f>
+              <c:f>'CTA 2019'!$I$4:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4627,7 +7298,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$N$4:$N$18</c:f>
+              <c:f>'CTA 2019'!$N$4:$N$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4691,7 +7362,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CEA 2019'!$N$22</c:f>
+              <c:f>'CTA 2019'!$N$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4726,7 +7397,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$I$23:$I$37</c:f>
+              <c:f>'CTA 2019'!$I$23:$I$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4780,7 +7451,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$N$23:$N$37</c:f>
+              <c:f>'CTA 2019'!$N$23:$N$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5271,7 +7942,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CEA 2019'!$N$21</c:f>
+              <c:f>'CTA 2019'!$N$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5306,7 +7977,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$I$4:$I$18</c:f>
+              <c:f>'CTA 2019'!$I$4:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5360,7 +8031,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$J$4:$J$18</c:f>
+              <c:f>'CTA 2019'!$J$4:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5424,7 +8095,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CEA 2019'!$N$22</c:f>
+              <c:f>'CTA 2019'!$N$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5459,7 +8130,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$I$23:$I$37</c:f>
+              <c:f>'CTA 2019'!$I$23:$I$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5513,7 +8184,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$J$23:$J$37</c:f>
+              <c:f>'CTA 2019'!$J$23:$J$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5577,7 +8248,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CEA 2019'!$N$40</c:f>
+              <c:f>'CTA 2019'!$N$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5612,7 +8283,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$I$41:$I$55</c:f>
+              <c:f>'CTA 2019'!$I$41:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5666,7 +8337,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$J$41:$J$55</c:f>
+              <c:f>'CTA 2019'!$J$41:$J$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5730,7 +8401,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CEA 2019'!$F$99</c:f>
+              <c:f>'CTA 2019'!$F$99</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5765,7 +8436,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$I$41:$I$55</c:f>
+              <c:f>'CTA 2019'!$I$41:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5819,7 +8490,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$F$100:$F$114</c:f>
+              <c:f>'CTA 2019'!$F$100:$F$114</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5883,7 +8554,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CEA 2019'!$N$75</c:f>
+              <c:f>'CTA 2019'!$N$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5918,7 +8589,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$I$76:$I$85</c:f>
+              <c:f>'CTA 2019'!$I$76:$I$85</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5957,7 +8628,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CEA 2019'!$K$76:$K$85</c:f>
+              <c:f>'CTA 2019'!$K$76:$K$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6435,7 +9106,7 @@
             <c:numRef>
               <c:f>'CTA 2021'!$I$4:$I$18</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -6573,7 +9244,7 @@
             <c:numRef>
               <c:f>'CTA 2021'!$I$4:$I$18</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -6711,7 +9382,7 @@
             <c:numRef>
               <c:f>'CTA 2021'!$I$4:$I$18</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -6849,7 +9520,7 @@
             <c:numRef>
               <c:f>'CTA 2021'!$I$4:$I$18</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -6987,7 +9658,7 @@
             <c:numRef>
               <c:f>'CTA 2021'!$I$4:$I$18</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -7165,7 +9836,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7499,7 +10170,7 @@
             <c:numRef>
               <c:f>'CTA 2021'!$I$4:$I$18</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -7652,7 +10323,7 @@
             <c:numRef>
               <c:f>'CTA 2021'!$I$23:$I$37</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -7805,7 +10476,7 @@
             <c:numRef>
               <c:f>'CTA 2021'!$I$41:$I$55</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -7958,7 +10629,7 @@
             <c:numRef>
               <c:f>'CTA 2021'!$I$58:$I$62</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -8096,7 +10767,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8435,7 +11106,7 @@
             <c:numRef>
               <c:f>'CTA 2021'!$I$41:$I$55</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -8564,7 +11235,7 @@
             <c:numRef>
               <c:f>'CTA 2021'!$I$41:$I$55</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -8693,7 +11364,7 @@
             <c:numRef>
               <c:f>'CTA 2021'!$I$41:$I$55</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -8822,7 +11493,7 @@
             <c:numRef>
               <c:f>'CTA 2021'!$I$41:$I$55</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -8951,7 +11622,7 @@
             <c:numRef>
               <c:f>'CTA 2021'!$I$41:$I$55</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -9129,7 +11800,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9458,6 +12129,86 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11561,6 +14312,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -11908,20 +15691,131 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{481A8295-08F2-496A-A396-5C6FCF94D3CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>375</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BDA4188-BD2E-4469-8DD8-C5934650328D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="2019"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70E9EF8E-4A65-47E5-BB33-3D231D91416A}" name="Table1" displayName="Table1" ref="A4:C10" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A4:C10" xr:uid="{E1A9CBFE-27ED-4DD6-8C2B-9CA69F0A2CD9}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{182DB334-7370-4C87-BE03-3083688FF26D}" name="Team" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{38A4E268-7784-4F89-B4EF-22571A131226}" name="F1-Score" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{7357C433-0475-44DC-B9FF-BFE793D0C3F5}" name="Precision" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3375160D-08EE-4151-95E4-3F30A8018291}" name="Table2" displayName="Table2" ref="E4:G8" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="E4:G8" xr:uid="{2F1A0CC7-CB1B-4A47-BA85-3AB2C047E89F}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{54847AD6-C6FA-4830-9FA3-23E756F52300}" name="Team" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{A5F0E4DC-360E-4539-8CC9-6219A6E426A5}" name="F1-Score" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{DD70BBFE-070C-475D-ADF5-DEDE6F74AAFD}" name="Precision" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C4071C7E-6D51-4058-8F1F-959DA9159E02}" name="Table3" displayName="Table3" ref="J4:L16" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="J4:L16" xr:uid="{3A4EB0B7-33D8-4489-A7AC-45694732C66F}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C2F0F640-FC2A-4F9D-9634-F7C4EA8FF6F5}" name="Team" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{2FDCAE10-F595-4D78-9AC9-1BF672AC7F5D}" name="F1-Score" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{1DDDD582-79E8-42C7-B797-11402F8621E9}" name="Precision" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2794813E-16C0-4781-ABF8-87D1C23F8D15}" name="Table4" displayName="Table4" ref="N4:P18" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="N4:P18" xr:uid="{0111FCEE-D9DA-47F0-A087-A7D8E2D4209D}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{16C3F00F-DB07-48FF-BD6E-6003D5A83AC5}" name="Team" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{7B465656-95EF-4FFF-8F11-5594A416284B}" name="F1-Score" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{94B1DD06-0C33-4ECC-A293-0DFA96C5AA15}" name="Precision" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12223,8 +16117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:N135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76:E80"/>
+    <sheetView showGridLines="0" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -14198,10 +18092,13 @@
     <row r="75" spans="1:14">
       <c r="B75" s="1"/>
       <c r="J75" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="K75" t="s">
-        <v>263</v>
+        <v>269</v>
+      </c>
+      <c r="L75" t="s">
+        <v>270</v>
       </c>
       <c r="N75" t="s">
         <v>221</v>
@@ -14215,16 +18112,16 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D76" t="s">
         <v>259</v>
       </c>
-      <c r="E76" t="s">
-        <v>268</v>
-      </c>
       <c r="F76" t="s">
-        <v>267</v>
+        <v>266</v>
+      </c>
+      <c r="G76" t="s">
+        <v>265</v>
       </c>
       <c r="I76" s="2">
         <v>1</v>
@@ -14236,9 +18133,12 @@
         <v>66.06</v>
       </c>
       <c r="L76">
+        <v>45.87</v>
+      </c>
+      <c r="M76">
         <v>68.81</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <v>65.14</v>
       </c>
     </row>
@@ -14247,15 +18147,15 @@
         <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D77" t="s">
         <v>61</v>
       </c>
-      <c r="E77" t="s">
-        <v>269</v>
-      </c>
       <c r="F77" t="s">
+        <v>267</v>
+      </c>
+      <c r="G77" t="s">
         <v>61</v>
       </c>
       <c r="I77" s="2">
@@ -14267,10 +18167,13 @@
       <c r="K77">
         <v>77.06</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="1">
+        <v>66.97</v>
+      </c>
+      <c r="M77">
         <v>79.819999999999993</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>77.06</v>
       </c>
     </row>
@@ -14279,15 +18182,15 @@
         <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D78" t="s">
         <v>260</v>
       </c>
-      <c r="E78" t="s">
-        <v>266</v>
-      </c>
       <c r="F78" t="s">
+        <v>264</v>
+      </c>
+      <c r="G78" t="s">
         <v>260</v>
       </c>
       <c r="I78" s="2">
@@ -14300,9 +18203,12 @@
         <v>81.650000000000006</v>
       </c>
       <c r="L78">
+        <v>77.06</v>
+      </c>
+      <c r="M78">
         <v>84.4</v>
       </c>
-      <c r="M78">
+      <c r="N78">
         <v>81.650000000000006</v>
       </c>
     </row>
@@ -14316,10 +18222,10 @@
       <c r="D79" t="s">
         <v>40</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>223</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>224</v>
       </c>
       <c r="I79" s="2">
@@ -14331,10 +18237,13 @@
       <c r="K79">
         <v>86.24</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="1">
+        <v>81.650000000000006</v>
+      </c>
+      <c r="M79">
         <v>86.24</v>
       </c>
-      <c r="M79">
+      <c r="N79">
         <v>84.4</v>
       </c>
     </row>
@@ -14348,10 +18257,10 @@
       <c r="D80" t="s">
         <v>222</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>222</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>225</v>
       </c>
       <c r="I80" s="2">
@@ -14363,19 +18272,22 @@
       <c r="K80">
         <v>88.07</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="1">
+        <v>85.32</v>
+      </c>
+      <c r="M80">
         <v>88.07</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <v>88.99</v>
       </c>
     </row>
-    <row r="81" spans="2:13">
+    <row r="81" spans="2:14">
       <c r="B81" s="1"/>
       <c r="D81" t="s">
         <v>261</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>261</v>
       </c>
       <c r="I81" s="2">
@@ -14384,16 +18296,19 @@
       <c r="K81">
         <v>90.83</v>
       </c>
-      <c r="M81">
+      <c r="L81" s="1">
+        <v>87.16</v>
+      </c>
+      <c r="N81">
         <v>90.83</v>
       </c>
     </row>
-    <row r="82" spans="2:13">
+    <row r="82" spans="2:14">
       <c r="B82" s="1"/>
       <c r="D82" t="s">
         <v>16</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>17</v>
       </c>
       <c r="I82" s="2">
@@ -14402,16 +18317,19 @@
       <c r="K82">
         <v>92.66</v>
       </c>
-      <c r="M82">
+      <c r="L82" s="1">
+        <v>88.99</v>
+      </c>
+      <c r="N82">
         <v>93.58</v>
       </c>
     </row>
-    <row r="83" spans="2:13">
+    <row r="83" spans="2:14">
       <c r="B83" s="1"/>
       <c r="D83" t="s">
         <v>17</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>17</v>
       </c>
       <c r="I83" s="2">
@@ -14420,16 +18338,19 @@
       <c r="K83">
         <v>93.58</v>
       </c>
-      <c r="M83">
+      <c r="L83" s="1">
+        <v>88.99</v>
+      </c>
+      <c r="N83">
         <v>93.58</v>
       </c>
     </row>
-    <row r="84" spans="2:13">
+    <row r="84" spans="2:14">
       <c r="B84" s="1"/>
       <c r="D84" t="s">
         <v>17</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>17</v>
       </c>
       <c r="I84" s="2">
@@ -14438,16 +18359,19 @@
       <c r="K84">
         <v>93.58</v>
       </c>
-      <c r="M84">
+      <c r="L84" s="1">
         <v>93.58</v>
       </c>
-    </row>
-    <row r="85" spans="2:13">
+      <c r="N84">
+        <v>93.58</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14">
       <c r="B85" s="1"/>
       <c r="D85" t="s">
         <v>17</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>17</v>
       </c>
       <c r="I85" s="2">
@@ -14456,100 +18380,108 @@
       <c r="K85">
         <v>93.58</v>
       </c>
-      <c r="M85">
+      <c r="L85" s="1">
         <v>93.58</v>
       </c>
-    </row>
-    <row r="86" spans="2:13">
+      <c r="N85">
+        <v>93.58</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14">
       <c r="B86" s="1"/>
-    </row>
-    <row r="87" spans="2:13">
+      <c r="I86" s="2">
+        <v>11</v>
+      </c>
+      <c r="L86" s="1">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14">
       <c r="B87" s="1"/>
-    </row>
-    <row r="88" spans="2:13">
+      <c r="I87" s="2">
+        <v>12</v>
+      </c>
+      <c r="L87" s="1">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14">
       <c r="B88" s="1"/>
-    </row>
-    <row r="89" spans="2:13">
+      <c r="I88" s="2">
+        <v>13</v>
+      </c>
+      <c r="L88" s="1">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14">
       <c r="B89" s="1"/>
       <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="2:13">
+      <c r="I89" s="2">
+        <v>14</v>
+      </c>
+      <c r="L89" s="1">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14">
       <c r="B90" s="1"/>
       <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="2:13">
+      <c r="I90" s="2">
+        <v>15</v>
+      </c>
+      <c r="L90" s="1">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14">
       <c r="B91" s="1"/>
       <c r="D91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:13">
+    <row r="92" spans="2:14">
       <c r="B92" s="1"/>
       <c r="D92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:13">
+    <row r="93" spans="2:14">
       <c r="B93" s="1"/>
       <c r="D93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:13">
+    <row r="94" spans="2:14">
       <c r="B94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:13">
+    <row r="95" spans="2:14">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
-      <c r="I95" s="1">
-        <v>1</v>
-      </c>
-      <c r="J95" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="96" spans="2:13">
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="2:14">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
-      <c r="I96" s="1">
-        <v>2</v>
-      </c>
-      <c r="J96" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10">
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="2:9">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
-      <c r="I97" s="1">
-        <v>3</v>
-      </c>
-      <c r="J97" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10">
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="2:9">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
-      <c r="I98" s="1">
-        <v>4</v>
-      </c>
-      <c r="J98" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="99" spans="2:10">
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="2:9">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="F99" t="s">
         <v>258</v>
       </c>
-      <c r="I99" s="1">
-        <v>5</v>
-      </c>
-      <c r="J99" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="100" spans="2:10">
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="2:9">
       <c r="B100" s="1"/>
       <c r="C100" s="1" t="s">
         <v>231</v>
@@ -14560,14 +18492,9 @@
       <c r="F100">
         <v>37.61</v>
       </c>
-      <c r="I100" s="1">
-        <v>6</v>
-      </c>
-      <c r="J100" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="101" spans="2:10">
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="2:9">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" t="s">
@@ -14579,14 +18506,9 @@
       <c r="F101">
         <v>55.05</v>
       </c>
-      <c r="I101" s="1">
-        <v>7</v>
-      </c>
-      <c r="J101" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="2:10">
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="2:9">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" t="s">
@@ -14598,14 +18520,9 @@
       <c r="F102">
         <v>55.96</v>
       </c>
-      <c r="I102" s="1">
-        <v>8</v>
-      </c>
-      <c r="J102" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103" spans="2:10">
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="2:9">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" t="s">
@@ -14617,14 +18534,9 @@
       <c r="F103">
         <v>59.63</v>
       </c>
-      <c r="I103" s="1">
-        <v>9</v>
-      </c>
-      <c r="J103" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="104" spans="2:10">
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="2:9">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" t="s">
@@ -14636,14 +18548,9 @@
       <c r="F104">
         <v>60.55</v>
       </c>
-      <c r="I104" s="1">
-        <v>10</v>
-      </c>
-      <c r="J104" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="105" spans="2:10">
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="2:9">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" t="s">
@@ -14656,7 +18563,7 @@
         <v>60.55</v>
       </c>
     </row>
-    <row r="106" spans="2:10">
+    <row r="106" spans="2:9">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" t="s">
@@ -14669,7 +18576,7 @@
         <v>60.55</v>
       </c>
     </row>
-    <row r="107" spans="2:10">
+    <row r="107" spans="2:9">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" t="s">
@@ -14682,7 +18589,7 @@
         <v>60.55</v>
       </c>
     </row>
-    <row r="108" spans="2:10">
+    <row r="108" spans="2:9">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" t="s">
@@ -14695,7 +18602,7 @@
         <v>62.39</v>
       </c>
     </row>
-    <row r="109" spans="2:10">
+    <row r="109" spans="2:9">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" t="s">
@@ -14708,7 +18615,7 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="110" spans="2:10">
+    <row r="110" spans="2:9">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" t="s">
@@ -14721,7 +18628,7 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="111" spans="2:10">
+    <row r="111" spans="2:9">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" t="s">
@@ -14734,7 +18641,7 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="112" spans="2:10">
+    <row r="112" spans="2:9">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" t="s">
@@ -14840,7 +18747,7 @@
   <dimension ref="A4:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="B5:D10"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -14944,10 +18851,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:N120"/>
+  <dimension ref="A3:AX120"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -14955,7 +18862,7 @@
     <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="15.36328125" customWidth="1"/>
-    <col min="9" max="9" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.36328125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15013,7 +18920,7 @@
       <c r="G4" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="4">
         <v>1</v>
       </c>
       <c r="J4" s="2">
@@ -15051,7 +18958,7 @@
       <c r="G5" t="s">
         <v>157</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="4">
         <v>2</v>
       </c>
       <c r="J5" s="2">
@@ -15089,7 +18996,7 @@
       <c r="G6" t="s">
         <v>158</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="4">
         <v>3</v>
       </c>
       <c r="J6" s="2">
@@ -15127,7 +19034,7 @@
       <c r="G7" t="s">
         <v>159</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="4">
         <v>4</v>
       </c>
       <c r="J7" s="2">
@@ -15165,7 +19072,7 @@
       <c r="G8" t="s">
         <v>160</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="4">
         <v>5</v>
       </c>
       <c r="J8" s="2">
@@ -15203,7 +19110,7 @@
       <c r="G9" t="s">
         <v>161</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="4">
         <v>6</v>
       </c>
       <c r="J9" s="2">
@@ -15241,7 +19148,7 @@
       <c r="G10" t="s">
         <v>131</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="4">
         <v>7</v>
       </c>
       <c r="J10" s="2">
@@ -15279,7 +19186,7 @@
       <c r="G11" t="s">
         <v>162</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="4">
         <v>8</v>
       </c>
       <c r="J11" s="2">
@@ -15317,7 +19224,7 @@
       <c r="G12" t="s">
         <v>105</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="4">
         <v>9</v>
       </c>
       <c r="J12" s="2">
@@ -15355,7 +19262,7 @@
       <c r="G13" t="s">
         <v>105</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="4">
         <v>10</v>
       </c>
       <c r="J13" s="2">
@@ -15393,7 +19300,7 @@
       <c r="G14" t="s">
         <v>105</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="4">
         <v>11</v>
       </c>
       <c r="J14" s="2">
@@ -15431,7 +19338,7 @@
       <c r="G15" t="s">
         <v>105</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="4">
         <v>12</v>
       </c>
       <c r="J15" s="2">
@@ -15469,7 +19376,7 @@
       <c r="G16" t="s">
         <v>106</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="4">
         <v>13</v>
       </c>
       <c r="J16" s="2">
@@ -15507,7 +19414,7 @@
       <c r="G17" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="4">
         <v>14</v>
       </c>
       <c r="J17" s="2">
@@ -15545,7 +19452,7 @@
       <c r="G18" t="s">
         <v>132</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="4">
         <v>15</v>
       </c>
       <c r="J18" s="2">
@@ -15565,7 +19472,6 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -15573,7 +19479,6 @@
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -15581,7 +19486,6 @@
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="I21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -15593,7 +19497,6 @@
       <c r="A22" t="s">
         <v>67</v>
       </c>
-      <c r="I22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -15620,7 +19523,7 @@
       <c r="G23" t="s">
         <v>153</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="4">
         <v>1</v>
       </c>
       <c r="J23">
@@ -15658,7 +19561,7 @@
       <c r="G24" t="s">
         <v>148</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="4">
         <v>2</v>
       </c>
       <c r="J24">
@@ -15696,7 +19599,7 @@
       <c r="G25" t="s">
         <v>149</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="4">
         <v>3</v>
       </c>
       <c r="J25">
@@ -15734,7 +19637,7 @@
       <c r="G26" t="s">
         <v>154</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="4">
         <v>4</v>
       </c>
       <c r="J26">
@@ -15772,7 +19675,7 @@
       <c r="G27" t="s">
         <v>155</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="4">
         <v>5</v>
       </c>
       <c r="J27">
@@ -15810,7 +19713,7 @@
       <c r="G28" t="s">
         <v>144</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="4">
         <v>6</v>
       </c>
       <c r="J28">
@@ -15848,7 +19751,7 @@
       <c r="G29" t="s">
         <v>123</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="4">
         <v>7</v>
       </c>
       <c r="J29">
@@ -15886,7 +19789,7 @@
       <c r="G30" t="s">
         <v>113</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="4">
         <v>8</v>
       </c>
       <c r="J30">
@@ -15924,7 +19827,7 @@
       <c r="G31" t="s">
         <v>124</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="4">
         <v>9</v>
       </c>
       <c r="J31">
@@ -15962,7 +19865,7 @@
       <c r="G32" t="s">
         <v>106</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="4">
         <v>10</v>
       </c>
       <c r="J32">
@@ -15981,7 +19884,7 @@
         <v>83.27</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:50">
       <c r="B33">
         <v>11</v>
       </c>
@@ -16000,7 +19903,7 @@
       <c r="G33" t="s">
         <v>132</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="4">
         <v>11</v>
       </c>
       <c r="J33">
@@ -16019,7 +19922,7 @@
         <v>83.64</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:50">
       <c r="B34">
         <v>12</v>
       </c>
@@ -16038,7 +19941,7 @@
       <c r="G34" t="s">
         <v>132</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="4">
         <v>12</v>
       </c>
       <c r="J34">
@@ -16057,7 +19960,7 @@
         <v>83.64</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:50">
       <c r="B35">
         <v>13</v>
       </c>
@@ -16076,7 +19979,7 @@
       <c r="G35" t="s">
         <v>117</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="4">
         <v>13</v>
       </c>
       <c r="J35">
@@ -16095,7 +19998,7 @@
         <v>83.83</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:50">
       <c r="B36">
         <v>14</v>
       </c>
@@ -16114,7 +20017,7 @@
       <c r="G36" t="s">
         <v>117</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="4">
         <v>14</v>
       </c>
       <c r="J36">
@@ -16133,7 +20036,7 @@
         <v>83.83</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:50">
       <c r="B37">
         <v>15</v>
       </c>
@@ -16152,7 +20055,7 @@
       <c r="G37" t="s">
         <v>117</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="4">
         <v>15</v>
       </c>
       <c r="J37">
@@ -16171,18 +20074,18 @@
         <v>83.83</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:50">
       <c r="A39" t="s">
         <v>68</v>
       </c>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:50">
       <c r="N40" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:50">
       <c r="B41">
         <v>1</v>
       </c>
@@ -16201,7 +20104,7 @@
       <c r="G41" t="s">
         <v>204</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="4">
         <v>1</v>
       </c>
       <c r="J41">
@@ -16220,7 +20123,7 @@
         <v>21.56</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:50">
       <c r="B42">
         <v>2</v>
       </c>
@@ -16239,7 +20142,7 @@
       <c r="G42" t="s">
         <v>205</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="4">
         <v>2</v>
       </c>
       <c r="J42">
@@ -16257,8 +20160,11 @@
       <c r="N42">
         <v>42.94</v>
       </c>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="AX42" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43" spans="1:50">
       <c r="B43">
         <v>3</v>
       </c>
@@ -16277,7 +20183,7 @@
       <c r="G43" t="s">
         <v>206</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="4">
         <v>3</v>
       </c>
       <c r="J43">
@@ -16296,7 +20202,7 @@
         <v>50.19</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:50">
       <c r="B44">
         <v>4</v>
       </c>
@@ -16315,7 +20221,7 @@
       <c r="G44" t="s">
         <v>207</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="4">
         <v>4</v>
       </c>
       <c r="J44">
@@ -16334,7 +20240,7 @@
         <v>54.28</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:50">
       <c r="B45">
         <v>5</v>
       </c>
@@ -16353,7 +20259,7 @@
       <c r="G45" t="s">
         <v>208</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="4">
         <v>5</v>
       </c>
       <c r="J45">
@@ -16372,7 +20278,7 @@
         <v>60.59</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:50">
       <c r="B46">
         <v>6</v>
       </c>
@@ -16391,7 +20297,7 @@
       <c r="G46" t="s">
         <v>209</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="4">
         <v>6</v>
       </c>
       <c r="J46">
@@ -16410,7 +20316,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:50">
       <c r="B47">
         <v>7</v>
       </c>
@@ -16429,7 +20335,7 @@
       <c r="G47" t="s">
         <v>210</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="4">
         <v>7</v>
       </c>
       <c r="J47">
@@ -16448,7 +20354,7 @@
         <v>65.239999999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:50">
       <c r="B48">
         <v>8</v>
       </c>
@@ -16467,7 +20373,7 @@
       <c r="G48" t="s">
         <v>211</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="4">
         <v>8</v>
       </c>
       <c r="J48">
@@ -16505,7 +20411,7 @@
       <c r="G49" t="s">
         <v>212</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="4">
         <v>9</v>
       </c>
       <c r="J49">
@@ -16543,7 +20449,7 @@
       <c r="G50" t="s">
         <v>213</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="4">
         <v>10</v>
       </c>
       <c r="J50">
@@ -16581,7 +20487,7 @@
       <c r="G51" t="s">
         <v>214</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="4">
         <v>11</v>
       </c>
       <c r="J51">
@@ -16619,7 +20525,7 @@
       <c r="G52" t="s">
         <v>203</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="4">
         <v>12</v>
       </c>
       <c r="J52">
@@ -16657,7 +20563,7 @@
       <c r="G53" t="s">
         <v>215</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="4">
         <v>13</v>
       </c>
       <c r="J53">
@@ -16695,7 +20601,7 @@
       <c r="G54" t="s">
         <v>177</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="4">
         <v>14</v>
       </c>
       <c r="J54">
@@ -16733,7 +20639,7 @@
       <c r="G55" t="s">
         <v>192</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="4">
         <v>15</v>
       </c>
       <c r="J55">
@@ -16762,7 +20668,7 @@
       <c r="C57" t="s">
         <v>216</v>
       </c>
-      <c r="I57" s="1"/>
+      <c r="I57" s="5"/>
       <c r="J57" t="s">
         <v>221</v>
       </c>
@@ -16775,7 +20681,7 @@
         <v>217</v>
       </c>
       <c r="F58" s="1"/>
-      <c r="I58" s="2">
+      <c r="I58" s="4">
         <v>1</v>
       </c>
       <c r="J58">
@@ -16790,7 +20696,7 @@
         <v>218</v>
       </c>
       <c r="F59" s="1"/>
-      <c r="I59" s="2">
+      <c r="I59" s="4">
         <v>2</v>
       </c>
       <c r="J59">
@@ -16805,7 +20711,7 @@
         <v>219</v>
       </c>
       <c r="F60" s="1"/>
-      <c r="I60" s="2">
+      <c r="I60" s="4">
         <v>3</v>
       </c>
       <c r="J60">
@@ -16820,7 +20726,7 @@
         <v>220</v>
       </c>
       <c r="F61" s="1"/>
-      <c r="I61" s="2">
+      <c r="I61" s="4">
         <v>4</v>
       </c>
       <c r="J61">
@@ -16830,7 +20736,7 @@
     <row r="62" spans="2:14">
       <c r="B62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="I62" s="2">
+      <c r="I62" s="4">
         <v>5</v>
       </c>
       <c r="J62">
@@ -17120,7 +21026,7 @@
   <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -17219,4 +21125,481 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2D720F-5EDF-4A5E-BEE5-CC55E54AD695}">
+  <dimension ref="A2:P22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="17.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="6"/>
+    <col min="5" max="5" width="19.90625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.90625" style="6" customWidth="1"/>
+    <col min="8" max="9" width="8.7265625" style="6"/>
+    <col min="10" max="10" width="20.81640625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12" style="6" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" style="6"/>
+    <col min="14" max="14" width="20.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6328125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="12" style="6" customWidth="1"/>
+    <col min="17" max="16384" width="8.7265625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16">
+      <c r="A2" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="J3" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.46</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="K5" s="8">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="O5" s="8">
+        <v>1</v>
+      </c>
+      <c r="P5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0.785301314845958</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.84170900167501805</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="O6" s="8">
+        <v>1</v>
+      </c>
+      <c r="P6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15">
+        <v>0.3866</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.159</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.628</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="P8" s="8">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.184</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="J9" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="J10" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0.874</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="P10" s="8">
+        <v>0.85099999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="J11" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="J12" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="O12" s="15"/>
+      <c r="P12" s="18">
+        <v>0.75229999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="J13" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="K13" s="17">
+        <v>0.75305754193677699</v>
+      </c>
+      <c r="L13" s="17">
+        <v>0.86067827681026499</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0.754</v>
+      </c>
+      <c r="P13" s="8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="J14" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="P14" s="8">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="J15" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="P15" s="8">
+        <v>0.35799999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="J16" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0.627</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="P16" s="8">
+        <v>0.58099999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="4:16">
+      <c r="N17" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0.192</v>
+      </c>
+      <c r="P17" s="8">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="18" spans="4:16">
+      <c r="N18" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="O18" s="8">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="P18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:16">
+      <c r="D19" s="10"/>
+    </row>
+    <row r="22" spans="4:16">
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="4">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
 </file>